--- a/leave/src/main/resources/TestData/LeaveAdjustments/LeaveAdjustmentTests.xlsx
+++ b/leave/src/main/resources/TestData/LeaveAdjustments/LeaveAdjustmentTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\TestData\LeaveAdjustments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\LeaveAdjustments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00944B1-91C0-4282-883D-3BF5F6A6AAAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3E92E1-77B1-4F2B-BF59-FA927F1DF442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaveBalance" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="66">
   <si>
     <t>Test Case</t>
   </si>
@@ -186,12 +186,6 @@
     <t>Verify Leave Balance</t>
   </si>
   <si>
-    <t>Calender</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -279,12 +273,6 @@
 Credit On TenureBasis: Yes, Credit From Year: 3,5, Credit To Year: 5,7, Credit No. Of Leaves: 21, 23</t>
   </si>
   <si>
-    <t>calender</t>
-  </si>
-  <si>
-    <t>january</t>
-  </si>
-  <si>
     <t>ADCFWD_WD_01</t>
   </si>
   <si>
@@ -292,6 +280,12 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
 </sst>
 </file>
@@ -700,7 +694,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W5" sqref="W5"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,10 +798,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -858,7 +852,7 @@
         <v>21</v>
       </c>
       <c r="X2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s">
         <v>20</v>
@@ -875,16 +869,16 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="8">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>21</v>
@@ -960,7 +954,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1030,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1053,7 +1047,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1070,7 +1064,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1087,7 +1081,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1104,7 +1098,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1121,7 +1115,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1138,7 +1132,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1155,7 +1149,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1172,7 +1166,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1189,7 +1183,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1206,7 +1200,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1223,7 +1217,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1240,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1254,7 +1248,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>26</v>
@@ -1271,7 +1265,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>27</v>
@@ -1288,10 +1282,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1305,10 +1299,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1322,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1339,10 +1333,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1356,10 +1350,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1373,10 +1367,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1390,10 +1384,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1407,10 +1401,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1424,10 +1418,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1441,10 +1435,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1458,10 +1452,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1475,10 +1469,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1492,10 +1486,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1508,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C427B35-4B37-49A3-8748-88CCFDB58540}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1561,37 +1555,37 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>30</v>
@@ -1608,22 +1602,22 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2" s="8">
         <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -1686,7 +1680,7 @@
         <v>21</v>
       </c>
       <c r="AB2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="s">
         <v>20</v>
@@ -1697,22 +1691,22 @@
         <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E3" s="8">
         <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>21</v>
@@ -1796,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC0DA9B-D9EC-4C52-A25A-4945C299EDF2}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1830,7 +1824,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>26</v>
@@ -1847,10 +1841,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1928,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -1951,7 +1945,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -1968,7 +1962,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -1985,7 +1979,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -2002,7 +1996,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -2019,7 +2013,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -2036,7 +2030,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -2053,7 +2047,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -2070,7 +2064,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -2087,7 +2081,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -2104,7 +2098,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -2121,7 +2115,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -2138,7 +2132,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/leave/src/main/resources/TestData/LeaveAdjustments/LeaveAdjustmentTests.xlsx
+++ b/leave/src/main/resources/TestData/LeaveAdjustments/LeaveAdjustmentTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\LeaveAdjustments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3E92E1-77B1-4F2B-BF59-FA927F1DF442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFB7174-761E-43D3-AABC-C9216A05F7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaveBalance" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/leave/src/main/resources/TestData/LeaveAdjustments/LeaveAdjustmentTests.xlsx
+++ b/leave/src/main/resources/TestData/LeaveAdjustments/LeaveAdjustmentTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\LeaveAdjustments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFB7174-761E-43D3-AABC-C9216A05F7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD95CCE-D8EC-4E6D-ADB2-304E57B5F83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaveBalance" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeaveBalance!$A$1:$V$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="67">
   <si>
     <t>Test Case</t>
   </si>
@@ -286,6 +287,9 @@
   </si>
   <si>
     <t>April</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1507,7 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,7 +1657,7 @@
         <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="T2" t="s">
         <v>21</v>
